--- a/Assets/Data/Rules.xlsx
+++ b/Assets/Data/Rules.xlsx
@@ -459,6 +459,7 @@
 行動できるまでの時間を少しずつ遅らせる状態になります。
 居合状態で単体攻撃の対象になった時
 その単体攻撃を無効化し代わりに反撃攻撃を行います。
+この効果は拘束・スタンの状態の時は発動しません。
 居合状態は反撃攻撃をするか一定時間立つと解除します。
 居合によって無効化した行動は発動せず
 行動後に発生するリジェネや火傷の効果は発生しません。
@@ -623,8 +624,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -644,7 +645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,17 +653,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,8 +695,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,16 +733,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +766,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -721,67 +782,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,187 +797,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,31 +991,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,6 +1017,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,32 +1078,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,145 +1096,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2171,8 +2172,8 @@
   <sheetPr/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2621,7 +2622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" ht="208" spans="1:3">
+    <row r="41" ht="247" spans="1:3">
       <c r="A41">
         <v>225</v>
       </c>

--- a/Assets/Data/Rules.xlsx
+++ b/Assets/Data/Rules.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -35,50 +38,135 @@
     <t>Help</t>
   </si>
   <si>
+    <t>ゲームの流れ</t>
+  </si>
+  <si>
+    <t>「ヌミノース」は戦略・バトル・結果の3パートにわけられます。
+ステージには残りターン(終焉まで)が設けられ
+残りターンが0になるとエンディング
+または新たなステージに進みます。
+戦略パートは主にアルケミストの行動を決めます。
+できることはLvアップや敵と戦ったりなど様々です。
+バトルパートでは敵と戦い勝利することで報酬を獲得できます。
+結果パートでは、戦略・バトルで得た報酬を受け取ります。
+3パートを経過すると1ターン進みます。</t>
+  </si>
+  <si>
+    <t>戦略パートについて</t>
+  </si>
+  <si>
+    <t>アルケミストは戦略パートで5種類の行動ができます。
+コマンド毎に効果は様々です。
+「人体錬成」はアルケミストのLvをアップします。
+「理性拡張」はアルケミストが魔法を習得します。
+「存在修復」はアルケミストのHpとMpを回復します。
+「救済執行」は敵と戦います。アルケミスト達の編成を決めます。
+「素子補充」は(Nu)を入手します。</t>
+  </si>
+  <si>
+    <t>戦略コマンドについて</t>
+  </si>
+  <si>
+    <t>戦略パートの各コマンド
+「人体錬成」「理性拡張」「存在修復」「救済執行」「素子補充」は
+アルケミストが行動した数に応じてコマンドLvが増加します。
+行動回数が一定数を超えると各コマンドの効果が上昇します。
+効果の内容はコマンドによって様々です。
+「人体錬成」は確率でさらにLvアップします。
+「理性拡張」は確率で属性適正に応じて魔法を入手します。
+「存在修復」は確率で全ステータスが1アップします。
+「救済執行」は敵に勝利した際に獲得する(Nu)が増加します。
+「素子補充」は確率でさらに(Nu)を入手します。</t>
+  </si>
+  <si>
     <t>バトルについて</t>
   </si>
   <si>
-    <t>バトルは敵全てのHpを0にすると勝利します。
+    <t>バトルは敵のHpを0にすると勝利します。
 味方全てのHpが0になった場合は敗北となります。
-バトル終了時にHpが0のアルケミストはロストし
-以後ゲーム内に登場しなくなります。</t>
-  </si>
-  <si>
-    <t>行動順について</t>
+バトル終了時にHpが0のアルケミストはロストします。</t>
+  </si>
+  <si>
+    <t>ロストについて</t>
+  </si>
+  <si>
+    <t>バトル終了時にHpが0のアルケミストはロストします。
+ロストしたアルケミストは以後ゲーム内に登場しなくなります。
+ヒロインがロストした場合はゲームオーバーになります。</t>
+  </si>
+  <si>
+    <t>結果パートについて</t>
+  </si>
+  <si>
+    <t>アルケミストは結果パートで行動を実行します。
+救済執行を選択した場合は敵とバトルを行います。
+それ以外のコマンドを選択した場合は
+各コマンドの内容に応じて対価を獲得します。</t>
+  </si>
+  <si>
+    <t>思念継承について</t>
+  </si>
+  <si>
+    <t>ステージ開始時に思念継承をすることができます。
+思念継承するとコマンドLvアップ・ヒロインのステータスアップ
+魔法入手など様々な効果を得ることができます。
+思念の効果はステージ開始時に発揮されます。
+ヒロインと同じアルケミストの思念を選択することはできません。
+継承しても思念は消費されず何度でも選択できます。
+ステージ終了時に新たな思念を入手することができます。
+思念の所持数は最大10枠までです。
+思念は10枠全てを同じアルケミストにすることはできません。</t>
+  </si>
+  <si>
+    <t>夢幻召喚について</t>
+  </si>
+  <si>
+    <t>ステージ開始時に夢幻召喚をすることができます。
+夢幻召喚は所持しているアルカナを4枚まで選択します。
+アルカナの効果はコマンドLvアップ・アルケミストのLvアップ
+魔法習得など様々な効果を得ることができます。
+アルカナはそれぞれ条件に応じて自動的に発揮します。
+アルカナはステージ中1回だけ効果を発揮します。
+ステージ終了時に新たなアルカナを入手することができます。</t>
+  </si>
+  <si>
+    <t>属性適正について</t>
+  </si>
+  <si>
+    <t>魔法・アルケミストの属性適正は
+火・雷・氷・光・闇の5種類があります。
+アルケミストの属性適正が高いほど
+魔法習得時のコストが減少します。</t>
+  </si>
+  <si>
+    <t>バトルの行動順について</t>
   </si>
   <si>
     <t>バトルは敵味方順番に行動します。
-行動順はステータスのSPDで決まります。</t>
-  </si>
-  <si>
-    <t>隊列について</t>
-  </si>
-  <si>
-    <t>敵グループは敵ごとに隊列が構成されています。
-隊列は前列・後列の2つにわけられます。
-前列の敵が存在している間、後列の敵は魔法の対象になりませんが
-対象が全体の魔法や、後列を対象にとれる一部の魔法は
-対象になります。</t>
-  </si>
-  <si>
-    <t>属性について</t>
-  </si>
-  <si>
-    <t>魔法には火・雷・氷・光・闇の属性があります。
-相性はないため相対的な効果は全て変わりません。
-属性は魔法習得時のコストに影響します。</t>
+敵味方共に行動できるまでの時間（待機時間）が設けられ
+待機時間が0になると行動できるようになります。
+待機時間の長さはステータスのSPDで決まります。</t>
+  </si>
+  <si>
+    <t>Rangeについて</t>
+  </si>
+  <si>
+    <t>魔法はそれぞれS・LのRangeが設定されます。
+また敵はそれぞれ前・後の隊列に属します。
+前列の敵が存在している間
+Range・Sの魔法は後列の敵を対象にできません。</t>
   </si>
   <si>
     <t>魔法種別について</t>
   </si>
   <si>
     <t>魔法はMagic・Passive・Demigod・Awakenに分類されます。
-MagicはMpを消費することで使用できます。
-Passiveは(条件)を満たした時、自動で発動します。
+MagicはMpを消費することで効果を発揮します。
+Passiveは(条件)を満たした時に効果を発動します。
 Demigodはバトル中1回のみ
-(条件)を満たした時、自動で発動します。
+(条件)を満たした時に効果を発動します。
 Awakenは神化状態の時のみ
-Mpを消費することで使用できます。</t>
+Mpを消費することで効果を発揮します。</t>
   </si>
   <si>
     <t>神化状態について</t>
@@ -94,107 +182,31 @@
     <t>撤退について</t>
   </si>
   <si>
-    <t>一部のバトルを除きバトルから撤退できます。
-撤退するとバトルは終了します。</t>
+    <t>一部のバトルを除きバトル中は撤退できます。
+撤退するとバトルは敗北状態として終了します。</t>
   </si>
   <si>
     <t>自動戦闘について</t>
   </si>
   <si>
-    <t>バトル中に「自動戦闘」状態を切り替えることで
-術者の行動選択を自動にすることができます。
-術者は状況に応じて行動するようになります。</t>
-  </si>
-  <si>
-    <t>ゲームの流れ</t>
-  </si>
-  <si>
-    <t>「Numinos」は戦略・バトル・結果の3つのパートにわけられます。
-3つのパートを経過すると1ターン進みます。
-ステージには残りターン(終焉まで)が設定され
-残りターンが0になるとエンディング、
-または別のステージがはじまります。
-戦略パートではアルケミストの行動を決めます。
-行動はLvアップや敵と戦ったり様々です。
-バトルパートでは敵と戦い勝利することで報酬を獲得できます。
-結果パートでは、戦略・バトルで得た報酬を受け取ります。
-3つのパートを経過すると1ターン進みます。</t>
-  </si>
-  <si>
-    <t>戦略パートについて</t>
-  </si>
-  <si>
-    <t>戦略パートではアルケミストに5種類のコマンドを命令できます。
-「人体錬成」はアルケミストのLvをアップします。
-「理性拡張」はアルケミストが魔法を習得します。
-「存在修復」はアルケミストのHpとMpを回復します。
-「救済執行」は敵と戦うアルケミスト達の編成を決めます。
-「素子補充」は(Nu)を入手します。</t>
-  </si>
-  <si>
-    <t>戦略コマンドについて</t>
-  </si>
-  <si>
-    <t>「人体錬成」「理性拡張」「存在修復」「救済執行」「素子補充」は
-アルケミストが行動した分だけ命令回数が蓄積されます。
-命令回数が一定数を超えると全てのコマンドの効果が上昇します。
-効果の内容はコマンドによって様々です。
-「人体錬成」は確率でさらにLvアップします。
-「理性拡張」は確率で習得魔法と同属性の魔法を入手します。
-「存在修復」は確率で全ステータスが1アップします。
-「救済執行」は敵に勝利した際に(Nu)を入手します。
-「素子補充」は(Nu)をさらに入手します。</t>
-  </si>
-  <si>
-    <t>ロストについて</t>
-  </si>
-  <si>
-    <t>バトル終了時に戦闘不能状態のアルケミストはロストします。
-ロストしたアルケミストは以後ゲーム内に登場しなくなります。
-またヒロインだった場合はゲームオーバーになります。</t>
-  </si>
-  <si>
-    <t>思念継承について</t>
-  </si>
-  <si>
-    <t>思念を継承するとコマンドLvアップ・ヒロインのステータスアップ
-魔法を入手など様々な効果を得ることができます。
-思念の効果はステージ開始時に発揮されます。
-ヒロインと同じアルケミストの思念を選択することはできません。
-継承しても思念は消費されず何度でも選択することができます。
-ステージ終了時に新たな思念を入手することができます。
-思念の所持数は最大10個までです。
-全て同一のアルケミストの思念を所有することはできません。</t>
-  </si>
-  <si>
-    <t>結果パートについて</t>
-  </si>
-  <si>
-    <t>結果パートでは戦略コマンドで術者毎に選択した行動について
-結果が報告されます。
-救済執行コマンドを選択した場合は敵とバトルを行います。
-一度倒したことのある敵とのバトルについては
-術者にバトルの全てを任せることができます。
-ただし実際にバトルを行った結果が報告されるため
-術者はロストする可能性があります。
-術者の行動はバトルで「自動戦闘」状態にした時と同じです。</t>
-  </si>
-  <si>
-    <t>バトル状態の効果について</t>
-  </si>
-  <si>
-    <t>基本的にバトル中に付与する効果は重複しません。
-例外的に条件を満たすことで効果が重複するステートが存在します。
-重複の有無・条件は各ステート項目の記載で確認できます。</t>
+    <t>バトル中「自動戦闘」状態を切り替えることで
+自動でバトルが進むようになります。</t>
+  </si>
+  <si>
+    <t>バトルの状態効果について</t>
+  </si>
+  <si>
+    <t>バトルでは様々な状態効果が発揮します。
+状態効果は基本的に重複しません。
+例外的に効果が重複する状態が存在します。
+重複の有無・条件は各状態効果の項目で確認できます。</t>
   </si>
   <si>
     <t>戦闘不能</t>
   </si>
   <si>
     <t>バトル中Hpが0になると戦闘不能状態になります。
-戦闘不能状態では、アルケミストは行動できなくなります。
-またバトル終了時に戦闘不能状態になっている
-アルケミストはロストします。
+アルケミストは戦闘不能状態では行動できなくなります。
 戦闘不能状態は蘇生効果で解除できます。</t>
   </si>
   <si>
@@ -202,94 +214,223 @@
   </si>
   <si>
     <t>バトル中Demigod魔法を使用すると神化状態になります。
+その後Awaken魔法を使用すると解除されます。
 神化状態になったアルケミストは
 ATK・DEF・SPDが神格適性の値だけ上昇します。
-神化状態の効果は重複せず
-バトル中1度だけ付与することが可能です。</t>
+神化の状態効果は重複せず
+バトル中1度だけ自動的に効果が発揮します。</t>
+  </si>
+  <si>
+    <t>バフ</t>
+  </si>
+  <si>
+    <t>バフ状態はそれぞれステータスを上昇します。
+下記効果はバフ状態に分類します。
+・最大Hpアップ
+・最大Mpアップ
+・攻撃アップ
+・防御アップ
+・速度アップ
+・致命攻撃発生率アップ
+・命中アップ
+・回避アップ
+バフの効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。
+命中率の下限値は10%のため
+回避アップ効果が100%を超えても攻撃が命中する場合があります。</t>
+  </si>
+  <si>
+    <t>デバフ</t>
+  </si>
+  <si>
+    <t>デバフ状態はそれぞれステータスを減少します。
+下記効果はデバフ状態に分類します。
+・最大Hpダウン
+・最大Mpダウン
+・攻撃ダウン
+・防御ダウン
+・防御ブレイク
+・速度ダウン
+・致命攻撃発生率ダウン
+・命中ダウン
+・回避ダウン
+デバフの効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>状態異常</t>
+  </si>
+  <si>
+    <t>状態異常はそれぞれ不利の効果を発揮します。
+下記効果は状態異常に分類します。
+・火傷
+・拘束
+・呪い
+・凍結
+・スタン
+・鈍足
+・暗闇
+・即死付与
+状態異常の効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>火傷</t>
+  </si>
+  <si>
+    <t>火傷になると行動後に効果に応じたダメージを受けます。
+火傷を付与した使用者が戦闘不能になった時
+その効果は解除されます。
+火傷によるダメージは攻撃無効効果では無効になりません。
+火傷の効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>拘束</t>
+  </si>
+  <si>
+    <t>拘束状態になると
+行動するまでの時間が遅延しつづけ行動できなくなります。
+さらに効果に応じてダメージを受けつづけ
+一定の効果が発動しなくなります。
+下記効果は拘束中に発揮しなくなります。
+・CA
+拘束は付与した使用者が攻撃を受けるか
+次の行動をする時に解除されます。
+拘束を付与した使用者が戦闘不能になった時
+その効果は解除されます。
+拘束は状態異常回復効果で解除できます。
+拘束の効果は重複せず
+拘束状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>呪い</t>
+  </si>
+  <si>
+    <t>呪い状態になると
+呪いを付与した使用者が魔法でダメージを受ける時
+付与された対象が効果に応じたダメージを受けます。
+呪いは状態異常回復効果で解除できます。
+呪いの効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>凍結</t>
+  </si>
+  <si>
+    <t>凍結状態になると
+魔法でダメージを与えた時に
+使用者にも効果に応じてダメージを受けます。
+凍結は魔法でダメージを与えるか
+状態異常回復効果で解除できます。
+凍結の効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>スタン</t>
+  </si>
+  <si>
+    <t>スタン状態になると行動待機時間が停止し
+一部の効果が発動しなくなります。
+下記効果はスタン中に発揮しなくなります。
+・CA
+スタンは状態異常回復効果で解除できます。
+スタンの効果は重複せず
+スタン状態の対象には付与しません。</t>
   </si>
   <si>
     <t>鈍足</t>
   </si>
   <si>
-    <t>鈍足状態になると行動できるまでの時間が遅延します。
-鈍足状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は鈍足効果はかかりません。
-鈍足状態の効果は重複せず
-鈍足状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>スタン</t>
-  </si>
-  <si>
-    <t>スタン状態になると行動できるまでの時間が遅延し
-一部の効果が発動しなくなります。
-スタン状態は状態異常回復効果で解除できます。
-また状態異常無効状態中はスタン効果はかかりません。
-スタン状態の時、CA効果は発動しません。
-スタン状態の効果は重複せず
-スタン状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>火傷</t>
-  </si>
-  <si>
-    <t>火傷状態になると行動後に一定のダメージを受けます。
-火傷状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は火傷効果はかかりません。
-火傷状態を付与した使用者が戦闘不能になった時
+    <t>鈍足状態になると効果に応じた期間中
+行動待機時間の進みが遅延します。
+鈍足は状態異常回復効果で解除できます。
+鈍足の効果は高速状態の効果と相殺します。
+鈍足の効果は重複せず
+鈍足状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>暗闇</t>
+  </si>
+  <si>
+    <t>暗闇状態になるとMagic魔法の命中率が減少します。
+Demigod・Awaken魔法の命中率は減少しません。
+暗闇は状態異常回復効果で解除できます。
+暗闇の効果は重複せず
+暗闇状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>即死付与</t>
+  </si>
+  <si>
+    <t>即死付与状態になると
+確率で攻撃ダメージに戦闘不能効果を付与します。
+即死付与の効果は重複せず
+即死付与状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>Hp回復効果・Hp回復状態</t>
+  </si>
+  <si>
+    <t>Hp回復効果は効果に応じて対象のHpを回復します。
+ただしアンデッド状態の対象に効果は発揮せず
+かわりに2倍のダメージを受けます。
+Hp回復状態になるとそれぞれ条件に応じて
+対象のHpが回復します。
+下記効果はHp回復状態に分類します。
+・蘇生
+・リジェネ
+・アフターヒール
+・祝福
+・アタックヒール
+・アンデッド
+・ドレイン
+・同時回復</t>
+  </si>
+  <si>
+    <t>蘇生</t>
+  </si>
+  <si>
+    <t>蘇生効果は戦闘不能状態を解除します。
+蘇生後のHpは1になります。</t>
+  </si>
+  <si>
+    <t>リジェネ</t>
+  </si>
+  <si>
+    <t>リジェネ状態になると行動後に回復します。
+リジェネを付与した使用者が戦闘不能になった時
 その効果は解除されます。
-火傷状態によるダメージは、攻撃無効効果では無効になりません。
-火傷状態の効果は
-付与時の魔法名が異なる場合は重複してダメージが発生します。</t>
-  </si>
-  <si>
-    <t>暗闇</t>
-  </si>
-  <si>
-    <t>暗闇状態になると魔法の成功率が減少します。
-暗闇状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は暗闇効果はかかりません。
-暗闇状態の効果は重複せず
-暗闇状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>凍結</t>
-  </si>
-  <si>
-    <t>凍結状態になると
-魔法でダメージを与えた時使用者もダメージを受けます。
-凍結状態は1回攻撃をするか状態異常回復効果で解除できます。
-また状態異常無効状態中は凍結効果はかかりません。
-凍結状態の効果は重複せず
-凍結状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>拘束</t>
-  </si>
-  <si>
-    <t>拘束状態になると
-行動するまでの時間が遅延し行動できなくなります。
-さらに一定ダメージを受け続けます。
-拘束状態は拘束を使用した対象が攻撃を受けるか
-拘束を使用した対象が次の行動をする前に解除されます。
-拘束状態を付与した使用者が戦闘不能になった時
-その効果は解除されます。
-拘束状態は状態異常回復効果で解除できますが
-状態異常無効状態で防ぐことはできません。
-拘束状態の効果は重複せず
-拘束状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>呪い</t>
-  </si>
-  <si>
-    <t>呪い状態になると
-呪いを付与した対象が魔法でダメージを受けた時
-ダメージを受けます。
-呪い状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は呪い効果はかかりません。
-呪い状態の効果は
-付与時の魔法名が異なる場合は重複してダメージが発生します。</t>
+リジェネの効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>アフターヒール</t>
+  </si>
+  <si>
+    <t>アフターヒール状態になると行動後自身のHpが回復します。
+アフターヒールの効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>祝福状態になると一定時間待機状態になり
+自身以外の味方のHpを回復しつづけます。
+祝福は祝福の使用者が攻撃を受けるか
+戦闘不能になった時効果は解除されます。
+祝福の効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>アタックヒール</t>
+  </si>
+  <si>
+    <t>アタックヒール状態になると
+攻撃を成功した回数に応じてHpを回復します。
+アタックヒールの効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
   </si>
   <si>
     <t>アンデッド</t>
@@ -297,63 +438,32 @@
   <si>
     <t>アンデッド状態になると
 行動後Hpが回復し1回だけ戦闘不能を回避します。
-アンデッド状態は戦闘不能を回避すると解除されます。
-アンデッド特攻効果によりダメージを受けた時
-アンデッド効果は発動しません。
-魔法によるHp回復効果はダメージに変わります。
-ドレイン効果によるHp回復効果は有効です。
-アンデッド状態のHp回復効果は
-付与時の魔法名が異なる場合は重複してダメージが発生します。</t>
-  </si>
-  <si>
-    <t>能力アップバフ</t>
-  </si>
-  <si>
-    <t>能力アップバフは対象のステータスを上昇します。
-能力アップバフ効果は下記効果が該当します。
-最大Hpアップ/最大Mpアップ/攻撃アップ/防御アップ/速度アップ/
-クリティカル発生率アップ/命中アップ/回避アップ狙われ率アップ/
-狙われ率ダウン
-能力アップバフの効果は
-付与時の魔法名が異なる場合は重複して効果が発生します。
-速度ステータスをの上限は83です。
-命中率の下限値は10%のため
-回避アップ効果が100%を超えても攻撃が命中する場合があります。</t>
-  </si>
-  <si>
-    <t>ダメージ威力アップ</t>
-  </si>
-  <si>
-    <t>ダメージ威力アップは攻撃ダメージの効果値を上昇します。
-ダメージ威力アップの効果は重複して効果が発生します。</t>
-  </si>
-  <si>
-    <t>状態異常無効</t>
-  </si>
-  <si>
-    <t>状態異常無効状態になると
-「鈍足・スタン・火傷・暗闇・凍結・呪い」状態にならなくなりま
-す。
-ただし既に状態異常無効で無効化できる状態に掛かっていた場合
-その効果は解除されません。
-状態異常無効状態の効果は重複せず
-状態異常無効状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>対象範囲延長</t>
-  </si>
-  <si>
-    <t>対象範囲延長状態になると
-魔法の対象に隊列の制限がかからなくなります。</t>
-  </si>
-  <si>
-    <t>アクセル</t>
-  </si>
-  <si>
-    <t>アクセル状態になると行動を終える度にSPDがアップします。
-SPDは上限の100までアップします。
-アクセル状態の効果は重複せず
-アクセル状態の対象に新たに付与はできません。</t>
+ただしHp回復効果により2倍のダメージを受けた時
+または白属性の魔法で攻撃を受けた時
+この戦闘不能の回避効果は発動しません。
+アンデッドは戦闘不能を回避すると解除されます。
+Hp回復状態によるHp回復効果は発揮します。
+アンデッドのHp回復状態効果は発揮する魔法名が異なる場合は
+効果が重複して発生します。</t>
+  </si>
+  <si>
+    <t>ドレイン</t>
+  </si>
+  <si>
+    <t>ドレイン状態になると
+攻撃ダメージと効果に応じてHpを回復します。
+ドレインと同時にCA効果が発揮した場合
+ドレイン効果がCA効果より多い時だけ効果を発揮します。</t>
+  </si>
+  <si>
+    <t>同時回復</t>
+  </si>
+  <si>
+    <t>同時回復状態になると
+使用者が使用者以外のHpを回復した時
+同時に使用者にも同じ分だけHpが回復します。
+同時回復の効果は重複せず
+同時回復状態の対象には付与しません。</t>
   </si>
   <si>
     <t>CA(カウンターアタック)</t>
@@ -362,8 +472,8 @@
     <t>CA状態になると一定時間待機状態になり
 攻撃を受けた時DEFの値だけダメージを反射します。
 スタン・拘束状態の時CA効果は発動しません。
-CA状態の効果は重複せず
-CA状態の対象に新たに付与はできません。</t>
+CAの効果は重複せず
+CA状態の対象には付与しません。</t>
   </si>
   <si>
     <t>攻撃無効</t>
@@ -372,117 +482,149 @@
     <t>攻撃無効状態になると
 一定回数攻撃を受けた時のダメージが0になります。
 火傷状態によるダメージは無効になりません。
-攻撃無効状態の効果は重複せず
-攻撃無効状態の対象に新たに付与はできません。
-&lt;ver0.0.10以降&gt;
-複数回攻撃するに対して攻撃無効の有効回数は攻撃回数毎にカウント
-されます。
-例）攻撃無効2回の状態で3回攻撃を受けた時攻撃無効2回は解除し
-3回目の攻撃を受けます。</t>
-  </si>
-  <si>
-    <t>挑発</t>
-  </si>
-  <si>
-    <t>挑発状態になると
-攻撃対象が挑発された相手に固定されます。
-挑発状態は対象が行動した後一定確率で解除されます。
-挑発状態の効果は重複せず
-挑発状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>祝福</t>
-  </si>
-  <si>
-    <t>祝福状態になると一定時間待機状態になり
-自身を除く味方のHpを回復し続けます。
-祝福状態は祝福を使用した対象が攻撃を受けると解除されます。
-祝福状態を付与した使用者が戦闘不能になった時
-その効果は解除されます。
-祝福状態の効果は
-付与時の魔法名が異なる場合は重複して回復が発生します。</t>
-  </si>
-  <si>
-    <t>リジェネ</t>
-  </si>
-  <si>
-    <t>リジェネ状態になると行動後に回復します。
-リジェネ状態を付与した使用者が戦闘不能になった時
-その効果は解除されます。
-リジェネ状態の効果は
-付与時の魔法名が異なる場合は重複して回復が発生します。</t>
+攻撃無効の効果は重複せず
+攻撃無効状態の対象には付与しません。
+複数回攻撃に対して攻撃無効の発揮数は攻撃回数毎に減少します。
+例）攻撃無効2回の状態で3回攻撃を受けた場合
+1回目、2回目の攻撃ダメージは無効になるが
+3回目のダメージは無効になりません。</t>
   </si>
   <si>
     <t>状態異常CA</t>
   </si>
   <si>
     <t>状態異常CA状態になると
-「鈍足・スタン・火傷・暗闇・凍結・呪い」状態を受けた時
-使用者に同じ状態異常を付与DEFの値だけダメージを反射します。
-状態異常CAは状態異常無効状態で受けた時でも発動します。
-反射した状態異常に対して状態異常CA効果は発動しません。
-状態異常CA状態の効果は重複せず
-状態異常CA状態の対象に新たに付与はできません。</t>
+状態異常を受けた場合に使用者にも同じ状態異常を付与し
+DEFの値だけダメージを反射します。
+状態異常CAは状態異常無効効果で無効化した時でも発動します。
+状態異常CA効果による状態異常に対して
+状態異常CA効果は発動しません。
+状態異常CAの効果は重複せず
+状態異常CA状態の対象には付与しません。</t>
   </si>
   <si>
     <t>プリズム</t>
   </si>
   <si>
-    <t>プリズムは光属性の攻撃回数が使用回数分だけ増加します。
-増加した回数分の攻撃のダメージは増加回数分だけ除算されます。
-例）プリズム付与1回分の効果で攻撃した時
+    <t>プリズムは光属性の攻撃回数が
+効果に応じて使用回数だけ増加します。
+プリズム効果の攻撃ダメージは攻撃回数に応じて除算します。
+例）プリズムの効果で攻撃が1回増えた時
 2回目の攻撃は1回目の攻撃の半分の威力になります。
-プリズムの効果は重複して効果が発生します。</t>
-  </si>
-  <si>
-    <t>バフ解除</t>
-  </si>
-  <si>
-    <t>バフ解除は状態異常効果・能力が下がる効果を除いて
-すべて即時に解除します。</t>
+プリズムの効果は魔法名にかかわらず重複します。</t>
   </si>
   <si>
     <t>パッシブ無効</t>
   </si>
   <si>
     <t>パッシブ無効になると
-(条件)を満たしてもパッシブスキルの効果が新たにかからなくなります。
-パッシブ無効が付与される前に発動したパッシブ効果は無効になりません。
-パッシブ無効状態の効果は重複せず
-パッシブ無効状態の対象に新たに付与はできません。</t>
+パッシブスキルの効果が新たに付与しなくなります。
+パッシブ無効を付与する前に発動した効果は無効になりません。
+パッシブ無効の効果は重複せず
+パッシブ無効状態の対象には付与しません。</t>
   </si>
   <si>
     <t>居合</t>
   </si>
   <si>
     <t>居合状態になると
-行動できるまでの時間を少しずつ遅らせる状態になります。
-居合状態で単体攻撃の対象になった時
-その単体攻撃を無効化し代わりに反撃攻撃を行います。
+行動待機時間を遅らせつづけます。
+居合状態で単体対象の魔法を受ける時
+その魔法を無効化し代わりに反撃攻撃を行います。
 この効果は拘束・スタンの状態の時は発動しません。
 居合状態は反撃攻撃をするか一定時間立つと解除します。
 居合によって無効化した行動は発動せず
-行動後に発生するリジェネや火傷の効果は発生しません。
-居合状態の効果は重複せず
-居合状態の対象に新たに付与はできません。</t>
+行動後に発生するHp回復状態や火傷の効果は発生しません。
+居合の効果は重複せず
+居合状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>高速</t>
+  </si>
+  <si>
+    <t>高速状態になると
+行動待機時間が短くなります。
+高速の効果は鈍足状態の効果と相殺します。
+高速の効果は重複せず
+高速状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>挑発</t>
+  </si>
+  <si>
+    <t>挑発状態になると
+魔法の対象が挑発された相手に固定されます。
+挑発の効果は行動した後に一定確率で解除されます。
+挑発の効果は重複せず
+挑発状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>状態異常回避</t>
+  </si>
+  <si>
+    <t>状態異常回避状態になると
+効果に応じた回数まで状態異常を回避します。
+状態異常回避の効果は重複せず
+状態異常回避状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>対象範囲延長</t>
+  </si>
+  <si>
+    <t>対象範囲延長状態になると魔法のRangeがLになり
+前・後の隊列にかかわらず対象にすることができます。</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>必中状態になると
+効果に応じて一定回数魔法が回避された時でも
+命中するようになります。
+必中の効果は重複せず
+必中状態の対象には付与しません。</t>
   </si>
   <si>
     <t>反骨精神</t>
   </si>
   <si>
     <t>反骨精神状態になると
-Hpの残存率に応じて単体攻撃のダメージがアップします。
-反骨精神状態の効果は重複せず
-反骨精神状態の対象に新たに付与はできません。</t>
-  </si>
-  <si>
-    <t>高速</t>
-  </si>
-  <si>
-    <t>高速状態になると
-行動できるまでの時間が短くなります。
-高速状態の効果は重複せず
-高速状態の対象に新たに付与はできません。</t>
+Hpの残存率に応じて単体攻撃のダメージが増加します。
+反骨精神の効果は重複せず
+反骨精神状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>アクセル</t>
+  </si>
+  <si>
+    <t>アクセル状態になると
+行動後にSPDが増加します。
+アクセルの効果は重複せず
+アクセル状態の対象には付与しません。</t>
+  </si>
+  <si>
+    <t>ダメージ威力アップ</t>
+  </si>
+  <si>
+    <t>ダメージ威力アップ状態になると
+攻撃魔法のダメージ効果率が増加します。
+ダメージ威力アップの効果は魔法名にかかわらず重複します。</t>
+  </si>
+  <si>
+    <t>バフ解除</t>
+  </si>
+  <si>
+    <t>バフ解除はバフ状態の効果をすべて解除します。
+デバフ効果・状態異常の効果は解除できません。</t>
+  </si>
+  <si>
+    <t>狙われ率アップ・ダウン</t>
+  </si>
+  <si>
+    <t>狙われ率アップ・ダウン状態になると
+それぞれ敵の魔法の対象に選ばれる確率が変化します。
+狙われ率アップ・ダウン状態の効果は重複せず
+狙われ率アップ・ダウン状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>【豊穣の月女神】
@@ -623,9 +765,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -645,7 +787,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,7 +802,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,21 +829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -711,23 +845,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,8 +875,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,22 +929,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -797,13 +939,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,13 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +1017,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,61 +1071,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,37 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,16 +1133,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1017,15 +1159,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,30 +1189,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1088,6 +1197,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1096,145 +1238,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,11 +1387,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1570,15 +1712,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,577 +1730,881 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>410</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>410</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>102</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>1000</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>103</v>
+        <v>1010</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>1010</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>104</v>
+        <v>1020</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>1020</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>105</v>
+        <v>1030</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>1030</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>106</v>
+        <v>1040</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>1040</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>201</v>
+        <v>2000</v>
       </c>
       <c r="B17">
-        <v>201</v>
+        <v>2000</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
-        <v>202</v>
+        <v>2010</v>
       </c>
       <c r="B18">
-        <v>202</v>
+        <v>2010</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
-        <v>203</v>
+        <v>2020</v>
       </c>
       <c r="B19">
-        <v>203</v>
+        <v>2020</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
-        <v>204</v>
+        <v>2030</v>
       </c>
       <c r="B20">
-        <v>204</v>
+        <v>2030</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
-        <v>205</v>
+        <v>2040</v>
       </c>
       <c r="B21">
-        <v>205</v>
+        <v>2040</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
-        <v>206</v>
+        <v>3000</v>
       </c>
       <c r="B22">
-        <v>206</v>
+        <v>3000</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
-        <v>207</v>
+        <v>3010</v>
       </c>
       <c r="B23">
-        <v>207</v>
+        <v>3010</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
-        <v>208</v>
+        <v>3020</v>
       </c>
       <c r="B24">
-        <v>208</v>
+        <v>3020</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
-        <v>209</v>
+        <v>3030</v>
       </c>
       <c r="B25">
-        <v>209</v>
+        <v>3030</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
-        <v>210</v>
+        <v>3040</v>
       </c>
       <c r="B26">
-        <v>210</v>
+        <v>3040</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
-        <v>211</v>
+        <v>3050</v>
       </c>
       <c r="B27">
-        <v>211</v>
+        <v>3050</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
-        <v>212</v>
+        <v>3060</v>
       </c>
       <c r="B28">
-        <v>212</v>
+        <v>3060</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
-        <v>213</v>
+        <v>3070</v>
       </c>
       <c r="B29">
-        <v>213</v>
+        <v>3070</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
-        <v>214</v>
+        <v>3080</v>
       </c>
       <c r="B30">
-        <v>214</v>
+        <v>3080</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
-        <v>215</v>
+        <v>4000</v>
       </c>
       <c r="B31">
-        <v>215</v>
+        <v>4000</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
-        <v>216</v>
+        <v>4010</v>
       </c>
       <c r="B32">
-        <v>216</v>
+        <v>4010</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
-        <v>217</v>
+        <v>4020</v>
       </c>
       <c r="B33">
-        <v>217</v>
+        <v>4020</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
-        <v>218</v>
+        <v>4030</v>
       </c>
       <c r="B34">
-        <v>218</v>
+        <v>4030</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
-        <v>219</v>
+        <v>4040</v>
       </c>
       <c r="B35">
-        <v>219</v>
+        <v>4040</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
-        <v>220</v>
+        <v>4050</v>
       </c>
       <c r="B36">
-        <v>220</v>
+        <v>4050</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
-        <v>221</v>
+        <v>4060</v>
       </c>
       <c r="B37">
-        <v>221</v>
+        <v>4060</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
-        <v>222</v>
+        <v>4070</v>
       </c>
       <c r="B38">
-        <v>222</v>
+        <v>4070</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
-        <v>223</v>
+        <v>5010</v>
       </c>
       <c r="B39">
-        <v>223</v>
+        <v>5010</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
-        <v>224</v>
+        <v>5020</v>
       </c>
       <c r="B40">
-        <v>224</v>
+        <v>5020</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
-        <v>225</v>
+        <v>5030</v>
       </c>
       <c r="B41">
-        <v>225</v>
+        <v>5030</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
-        <v>226</v>
+        <v>5040</v>
       </c>
       <c r="B42">
-        <v>226</v>
+        <v>5040</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
-        <v>227</v>
+        <v>5050</v>
       </c>
       <c r="B43">
-        <v>227</v>
+        <v>5050</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
-        <v>301</v>
+        <v>5060</v>
       </c>
       <c r="B44">
-        <v>301</v>
+        <v>5060</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
-        <v>302</v>
+        <v>5070</v>
       </c>
       <c r="B45">
-        <v>302</v>
+        <v>5070</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="12" customHeight="1" spans="1:4">
       <c r="A46">
-        <v>303</v>
+        <v>5080</v>
       </c>
       <c r="B46">
-        <v>303</v>
+        <v>5080</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
-        <v>304</v>
+        <v>5090</v>
       </c>
       <c r="B47">
-        <v>304</v>
+        <v>5090</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
-        <v>305</v>
+        <v>5100</v>
       </c>
       <c r="B48">
-        <v>305</v>
+        <v>5100</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
-        <v>306</v>
+        <v>5110</v>
       </c>
       <c r="B49">
-        <v>306</v>
+        <v>5110</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
-        <v>307</v>
+        <v>5120</v>
       </c>
       <c r="B50">
-        <v>307</v>
+        <v>5120</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="12" customHeight="1" spans="1:4">
       <c r="A51">
-        <v>308</v>
+        <v>5130</v>
       </c>
       <c r="B51">
-        <v>308</v>
+        <v>5130</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
-        <v>309</v>
+        <v>5140</v>
       </c>
       <c r="B52">
-        <v>309</v>
+        <v>5140</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>5150</v>
+      </c>
+      <c r="B53">
+        <v>5150</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>5160</v>
+      </c>
+      <c r="B54">
+        <v>5160</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>10010</v>
+      </c>
+      <c r="B55">
+        <v>10010</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>10020</v>
+      </c>
+      <c r="B56">
+        <v>10020</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>10030</v>
+      </c>
+      <c r="B57">
+        <v>10030</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>10031</v>
+      </c>
+      <c r="B58">
+        <v>10031</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>10040</v>
+      </c>
+      <c r="B59">
+        <v>10040</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>10041</v>
+      </c>
+      <c r="B60">
+        <v>10041</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>10050</v>
+      </c>
+      <c r="B61">
+        <v>10050</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>10060</v>
+      </c>
+      <c r="B62">
+        <v>10060</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>10070</v>
+      </c>
+      <c r="B63">
+        <v>10070</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2170,10 +2616,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2187,571 +2633,703 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="65" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="208" spans="1:3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="39" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="130" spans="1:3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="104" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="221" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="65" spans="1:3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="156" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="91" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="104" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="65" spans="1:3">
       <c r="A7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="39" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="221" spans="1:3">
       <c r="A8">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="52" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="182" spans="1:3">
       <c r="A9">
-        <v>8</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="221" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="65" spans="1:3">
       <c r="A10">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="117" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="91" spans="1:3">
       <c r="A11">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+        <v>1000</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="195" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="65" spans="1:3">
       <c r="A12">
-        <v>103</v>
+        <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="91" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="156" spans="1:3">
       <c r="A13">
-        <v>104</v>
+        <v>1020</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="195" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="104" spans="1:3">
       <c r="A14">
-        <v>105</v>
+        <v>1030</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="182" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="39" spans="1:3">
       <c r="A15">
-        <v>106</v>
+        <v>1040</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" ht="91" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="26" spans="1:3">
       <c r="A16">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="104" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="78" spans="1:3">
       <c r="A17">
-        <v>201</v>
+        <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" ht="104" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" ht="78" spans="1:3">
       <c r="A18">
-        <v>202</v>
+        <v>2010</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="117" spans="1:3">
       <c r="A19">
-        <v>203</v>
+        <v>2020</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="130" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="234" spans="1:3">
       <c r="A20">
-        <v>204</v>
+        <v>2030</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="195" spans="1:3">
       <c r="A21">
-        <v>205</v>
+        <v>2040</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="104" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="182" spans="1:3">
       <c r="A22">
-        <v>206</v>
+        <v>3000</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" ht="143" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="130" spans="1:3">
       <c r="A23">
-        <v>207</v>
+        <v>3010</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" ht="208" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="234" spans="1:3">
       <c r="A24">
-        <v>208</v>
+        <v>3020</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" ht="130" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" ht="104" spans="1:3">
       <c r="A25">
-        <v>209</v>
+        <v>3030</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" ht="195" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" ht="117" spans="1:3">
       <c r="A26">
-        <v>210</v>
+        <v>3040</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" ht="234" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" ht="130" spans="1:3">
       <c r="A27">
-        <v>211</v>
+        <v>3050</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" ht="65" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" ht="117" spans="1:3">
       <c r="A28">
-        <v>212</v>
+        <v>3060</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" ht="156" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" ht="104" spans="1:3">
       <c r="A29">
-        <v>213</v>
+        <v>3070</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" ht="26" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" ht="65" spans="1:3">
       <c r="A30">
-        <v>214</v>
+        <v>3080</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" ht="78" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" ht="221" spans="1:3">
       <c r="A31">
-        <v>215</v>
+        <v>4000</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" ht="104" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" ht="26" spans="1:3">
       <c r="A32">
-        <v>216</v>
+        <v>4010</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" ht="208" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" ht="91" spans="1:3">
       <c r="A33">
-        <v>217</v>
+        <v>4020</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" ht="104" spans="1:3">
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" ht="78" spans="1:3">
       <c r="A34">
-        <v>218</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" ht="156" spans="1:3">
+      <c r="C34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" ht="104" spans="1:3">
       <c r="A35">
-        <v>219</v>
+        <v>4040</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" ht="117" spans="1:3">
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" ht="78" spans="1:3">
       <c r="A36">
-        <v>220</v>
+        <v>4050</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" ht="195" spans="1:3">
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" ht="169" spans="1:3">
       <c r="A37">
-        <v>221</v>
+        <v>4060</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" ht="130" spans="1:3">
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" ht="78" spans="1:3">
       <c r="A38">
-        <v>222</v>
+        <v>4070</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" ht="39" spans="1:3">
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" ht="78" spans="1:3">
       <c r="A39">
-        <v>223</v>
+        <v>4080</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" ht="130" spans="1:3">
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" ht="104" spans="1:3">
       <c r="A40">
-        <v>224</v>
+        <v>5010</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" ht="247" spans="1:3">
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" ht="182" spans="1:3">
       <c r="A41">
-        <v>225</v>
+        <v>5020</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" ht="78" spans="1:3">
+      <c r="C41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" ht="169" spans="1:3">
       <c r="A42">
-        <v>226</v>
+        <v>5030</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" ht="65" spans="1:3">
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" ht="130" spans="1:3">
       <c r="A43">
-        <v>227</v>
+        <v>5040</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" ht="130" spans="1:3">
+      <c r="C43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" ht="104" spans="1:3">
       <c r="A44">
-        <v>301</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B44" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" ht="143" spans="1:3">
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" ht="221" spans="1:3">
       <c r="A45">
-        <v>302</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="1" t="s">
+        <v>5060</v>
+      </c>
+      <c r="B45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" ht="169" spans="1:3">
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" ht="91" spans="1:3">
       <c r="A46">
-        <v>303</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" ht="221" spans="1:3">
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" ht="104" spans="1:3">
       <c r="A47">
-        <v>304</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" ht="156" spans="1:3">
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" ht="65" spans="1:3">
       <c r="A48">
-        <v>305</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>5090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" ht="234" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" ht="39" spans="1:3">
       <c r="A49">
-        <v>306</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>5100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" ht="169" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" ht="78" spans="1:3">
       <c r="A50">
-        <v>307</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>5110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" ht="208" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" ht="78" spans="1:3">
       <c r="A51">
-        <v>308</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B51" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" ht="208" spans="1:3">
+      <c r="C51" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" ht="65" spans="1:3">
       <c r="A52">
-        <v>309</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>5130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" ht="65" spans="1:3">
+      <c r="A53">
+        <v>5140</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" ht="26" spans="1:3">
+      <c r="A54">
+        <v>5150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" ht="91" spans="1:3">
+      <c r="A55">
+        <v>5160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" ht="130" spans="1:3">
+      <c r="A56">
+        <v>10010</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" ht="143" spans="1:3">
+      <c r="A57">
+        <v>10020</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" ht="169" spans="1:3">
+      <c r="A58">
+        <v>10030</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" ht="221" spans="1:3">
+      <c r="A59">
+        <v>10031</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" ht="156" spans="1:3">
+      <c r="A60">
+        <v>10040</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" ht="234" spans="1:3">
+      <c r="A61">
+        <v>10041</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" ht="169" spans="1:3">
+      <c r="A62">
+        <v>10050</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" ht="208" spans="1:3">
+      <c r="A63">
+        <v>10060</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" ht="208" spans="1:3">
+      <c r="A64">
+        <v>10070</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Rules.xlsx
+++ b/Assets/Data/Rules.xlsx
@@ -45,7 +45,7 @@
 ステージには残りターン(終焉まで)が設けられ
 残りターンが0になるとエンディング
 または新たなステージに進みます。
-戦略パートは主にアルケミストの行動を決めます。
+戦略パートは主にアルケミストの行動を決定します。
 できることはLvアップや敵と戦ったりなど様々です。
 バトルパートでは敵と戦い勝利することで報酬を獲得できます。
 結果パートでは、戦略・バトルで得た報酬を受け取ります。
@@ -205,8 +205,10 @@
     <t>戦闘不能</t>
   </si>
   <si>
-    <t>バトル中Hpが0になると戦闘不能状態になります。
-アルケミストは戦闘不能状態では行動できなくなります。
+    <t>バトル中Hpが0になると戦闘不能状態になり
+行動できなくなります。
+戦闘不能状態になった時状態効果は
+バトル開始時に付与したPassive効果を除き解除されます。
 戦闘不能状態は蘇生効果で解除できます。</t>
   </si>
   <si>
@@ -225,7 +227,7 @@
   </si>
   <si>
     <t>バフ状態はそれぞれステータスを上昇します。
-下記効果はバフ状態に分類します。
+下記効果はバフ状態に分類されます。
 ・最大Hpアップ
 ・最大Mpアップ
 ・攻撃アップ
@@ -244,7 +246,7 @@
   </si>
   <si>
     <t>デバフ状態はそれぞれステータスを減少します。
-下記効果はデバフ状態に分類します。
+下記効果はデバフ状態に分類されます。
 ・最大Hpダウン
 ・最大Mpダウン
 ・攻撃ダウン
@@ -261,8 +263,8 @@
     <t>状態異常</t>
   </si>
   <si>
-    <t>状態異常はそれぞれ不利の効果を発揮します。
-下記効果は状態異常に分類します。
+    <t>状態異常はそれぞれ不利になる効果を発揮します。
+下記効果は状態異常に分類されます。
 ・火傷
 ・拘束
 ・呪い
@@ -271,8 +273,7 @@
 ・鈍足
 ・暗闇
 ・即死付与
-状態異常の効果は発揮する魔法名が異なる場合は
-効果が重複して発生します。</t>
+状態異常状態は状態異常回復効果で解消できます。</t>
   </si>
   <si>
     <t>火傷</t>
@@ -330,8 +331,8 @@
     <t>スタン</t>
   </si>
   <si>
-    <t>スタン状態になると行動待機時間が停止し
-一部の効果が発動しなくなります。
+    <t>スタン状態になると
+行動待機時間が停止し一部の効果が発動しなくなります。
 下記効果はスタン中に発揮しなくなります。
 ・CA
 スタンは状態異常回復効果で解除できます。
@@ -377,7 +378,7 @@
 かわりに2倍のダメージを受けます。
 Hp回復状態になるとそれぞれ条件に応じて
 対象のHpが回復します。
-下記効果はHp回復状態に分類します。
+下記効果はHp回復状態に分類されます。
 ・蘇生
 ・リジェネ
 ・アフターヒール
@@ -419,7 +420,7 @@
     <t>祝福状態になると一定時間待機状態になり
 自身以外の味方のHpを回復しつづけます。
 祝福は祝福の使用者が攻撃を受けるか
-戦闘不能になった時効果は解除されます。
+戦闘不能になった時その効果は解除されます。
 祝福の効果は発揮する魔法名が異なる場合は
 効果が重複して発生します。</t>
   </si>
@@ -441,8 +442,9 @@
 ただしHp回復効果により2倍のダメージを受けた時
 または白属性の魔法で攻撃を受けた時
 この戦闘不能の回避効果は発動しません。
+アンデッド状態でもHp回復状態による
+Hp回復効果は発揮します。
 アンデッドは戦闘不能を回避すると解除されます。
-Hp回復状態によるHp回復効果は発揮します。
 アンデッドのHp回復状態効果は発揮する魔法名が異なる場合は
 効果が重複して発生します。</t>
   </si>
@@ -453,7 +455,7 @@
     <t>ドレイン状態になると
 攻撃ダメージと効果に応じてHpを回復します。
 ドレインと同時にCA効果が発揮した場合
-ドレイン効果がCA効果より多い時だけ効果を発揮します。</t>
+それぞれの効果は相殺します。</t>
   </si>
   <si>
     <t>同時回復</t>
@@ -469,7 +471,7 @@
     <t>CA(カウンターアタック)</t>
   </si>
   <si>
-    <t>CA状態になると一定時間待機状態になり
+    <t>CA状態になると一定時間行動待機状態になり
 攻撃を受けた時DEFの値だけダメージを反射します。
 スタン・拘束状態の時CA効果は発動しません。
 CAの効果は重複せず
@@ -479,7 +481,7 @@
     <t>攻撃無効</t>
   </si>
   <si>
-    <t>攻撃無効状態になると
+    <t>攻撃無効状態になると効果に応じて
 一定回数攻撃を受けた時のダメージが0になります。
 火傷状態によるダメージは無効になりません。
 攻撃無効の効果は重複せず
@@ -542,8 +544,7 @@
     <t>高速</t>
   </si>
   <si>
-    <t>高速状態になると
-行動待機時間が短くなります。
+    <t>高速状態になると行動待機時間が短くなります。
 高速の効果は鈍足状態の効果と相殺します。
 高速の効果は重複せず
 高速状態の対象には付与しません。</t>
@@ -765,9 +766,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -786,15 +787,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,14 +811,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,14 +848,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,14 +872,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,6 +901,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -916,17 +918,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -939,13 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,19 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1012,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,13 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,49 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,19 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1131,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1144,21 +1160,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,17 +1184,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,6 +1220,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1238,46 +1239,46 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1286,97 +1287,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2618,8 +2619,8 @@
   <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2639,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="208" spans="1:3">
+    <row r="2" ht="221" spans="1:3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="78" spans="1:3">
+    <row r="18" ht="104" spans="1:3">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" ht="182" spans="1:3">
+    <row r="22" ht="195" spans="1:3">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" ht="130" spans="1:3">
+    <row r="27" ht="143" spans="1:3">
       <c r="A27">
         <v>3050</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" ht="169" spans="1:3">
+    <row r="37" ht="182" spans="1:3">
       <c r="A37">
         <v>4060</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" ht="78" spans="1:3">
+    <row r="38" ht="65" spans="1:3">
       <c r="A38">
         <v>4070</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" ht="91" spans="1:3">
+    <row r="46" ht="78" spans="1:3">
       <c r="A46">
         <v>5070</v>
       </c>

--- a/Assets/Data/Rules.xlsx
+++ b/Assets/Data/Rules.xlsx
@@ -41,7 +41,7 @@
     <t>ゲームの流れ</t>
   </si>
   <si>
-    <t>「ヌミノース」は戦略・バトル・結果の3パートにわけられます。
+    <t>「Numinos」は戦略・バトル・結果の3パートにわけられます。
 ステージには残りターン(終焉まで)が設けられ
 残りターンが0になるとエンディング
 または新たなステージに進みます。
@@ -766,9 +766,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -787,6 +787,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -795,9 +802,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,20 +823,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -842,6 +834,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +917,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,14 +925,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,7 +940,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,19 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,13 +1102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,133 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,21 +1149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1175,6 +1160,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,13 +1217,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,145 +1239,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2619,8 +2619,8 @@
   <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
